--- a/biology/Zoologie/Dauphin_à_bosse_de_l'océan_Indien/Dauphin_à_bosse_de_l'océan_Indien.xlsx
+++ b/biology/Zoologie/Dauphin_à_bosse_de_l'océan_Indien/Dauphin_à_bosse_de_l'océan_Indien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_de_l%27oc%C3%A9an_Indien</t>
+          <t>Dauphin_à_bosse_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sousa plumbea
 Le dauphin à bosse de l'océan Indien (Sousa plumbea) est une espèce de mammifères de l'ordre des cétacés, et de la famille des Delphinidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_de_l%27oc%C3%A9an_Indien</t>
+          <t>Dauphin_à_bosse_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les espèces du genre Sousa, c'est un assez gros dauphin, de couleur gris plomb, d'allure robuste et reconnaissable à sa bosse dorsale, d'où émerge un aileron relativement court et triangulaire.
 			Couple en Oman
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_de_l%27oc%C3%A9an_Indien</t>
+          <t>Dauphin_à_bosse_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce dauphin est relativement commun dans plusieurs régions de l'Océan Indien occidental et septentrional, de l'Afrique du Sud au Bangladesh, et particulièrement présent dans le sud de la péninsule arabique. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_de_l%27oc%C3%A9an_Indien</t>
+          <t>Dauphin_à_bosse_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dauphin à bosse de l'Océan Indien était considéré jusqu'en 2014 comme une sous-espèce de Sousa chinensis[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dauphin à bosse de l'Océan Indien était considéré jusqu'en 2014 comme une sous-espèce de Sousa chinensis.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_de_l%27oc%C3%A9an_Indien</t>
+          <t>Dauphin_à_bosse_de_l'océan_Indien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'UICN  (23 janvier 2023)[3] classe l'espèce en catégorie EN (en danger ) dans la liste rouge des espèces menacées depuis 2017. Victime collatérale de la surpêche et de la dégradation de son habitat, le dauphin à bosse de l'océan Indien a vu sa population décliner de plus de 50 % en 75 ans.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UICN  (23 janvier 2023) classe l'espèce en catégorie EN (en danger ) dans la liste rouge des espèces menacées depuis 2017. Victime collatérale de la surpêche et de la dégradation de son habitat, le dauphin à bosse de l'océan Indien a vu sa population décliner de plus de 50 % en 75 ans.
 </t>
         </is>
       </c>
